--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3486416.067557</v>
+        <v>3486029.357155199</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644332</v>
+        <v>247834.3978644349</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736559</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7187269.645404741</v>
+        <v>7187269.645404742</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -707,7 +707,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -719,13 +719,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>154.2219422117026</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.1534780148717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -786,25 +786,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>123.9845880986036</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>197.6126576240205</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.59665167322039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>69.97732202870799</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>197.5555659940133</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>135.510962649171</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -984,10 +984,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1035,10 +1035,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>8.18764550883523</v>
+        <v>25.61724442263279</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.63244338022742</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>167.1394242513583</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.3426657363197</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>30.59388520419988</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>134.8731973451911</v>
       </c>
       <c r="V9" t="n">
-        <v>135.776809622965</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.75270603218317</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>104.6480400901274</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508318</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>42.19847532512351</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>11.25159433703984</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>39.19800413111331</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472811</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808558</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031015</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513871</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>2.500393865538481</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867454</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508317</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T14" t="n">
-        <v>87.24806057532361</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617115</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>39.75433043521916</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>39.19800413111322</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932725</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472773</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230612</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808557</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627188</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761971</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031013</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513948</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355679</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214053</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U16" t="n">
-        <v>170.8881716075823</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V16" t="n">
-        <v>144.6977858889528</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C17" t="n">
         <v>207.1105963876487</v>
@@ -1862,7 +1862,7 @@
         <v>158.4892369657918</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.0852021104199423</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307757</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342693</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027389</v>
       </c>
       <c r="V17" t="n">
         <v>162.6056566701461</v>
@@ -1910,7 +1910,7 @@
         <v>207.2060143808496</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.1383638117192</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>125.5693077588067</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466402</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747731</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960597</v>
+        <v>59.84333895960594</v>
       </c>
       <c r="U19" t="n">
         <v>113.3145124229191</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428961</v>
       </c>
       <c r="W19" t="n">
         <v>112.2910127749029</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070601</v>
+        <v>57.93611477070598</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677367</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876486</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020821</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G20" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874818</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657917</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.08520211041985704</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307749</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342685</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027381</v>
       </c>
       <c r="V20" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W20" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808495</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>39.19800413111277</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2226,7 +2226,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.9092285451878</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466393</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747722</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960597</v>
+        <v>59.84333895960586</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229191</v>
+        <v>113.314512422919</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428952</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070601</v>
+        <v>57.9361147707059</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677359</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299669</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876486</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321766</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020821</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900593</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874818</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041997072</v>
+        <v>0.08520211041985704</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.3528609230776</v>
+        <v>14.35286092307749</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342696</v>
+        <v>51.11153211342685</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027392</v>
+        <v>81.33265823027381</v>
       </c>
       <c r="V23" t="n">
-        <v>162.6056566701461</v>
+        <v>162.605656670146</v>
       </c>
       <c r="W23" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481029</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808495</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770483</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>78.95005679387769</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>151.2158255372941</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466405</v>
+        <v>10.71599030466393</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747734</v>
+        <v>40.56884027747722</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960597</v>
+        <v>59.84333895960586</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229191</v>
+        <v>113.314512422919</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428964</v>
+        <v>87.12412670428952</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749028</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070601</v>
+        <v>57.9361147707059</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.8109825267737</v>
+        <v>48.81098252677359</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.186558012286</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2567,13 +2567,13 @@
         <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>293.6665659094112</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
@@ -2612,7 +2612,7 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327663</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133603</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>200.5214608522996</v>
+        <v>198.5881929548754</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.452416085674</v>
+        <v>248.4524160856738</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433557</v>
+        <v>236.4637330433556</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878835</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577892</v>
+        <v>249.1871746577891</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457663</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431889</v>
+        <v>270.2922586431888</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214988</v>
+        <v>187.8423736214987</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612698</v>
+        <v>29.43833876612683</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.7059975787846</v>
+        <v>43.70599757878446</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913397</v>
+        <v>80.46466876913382</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6857948859809</v>
+        <v>110.6857948859808</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258531</v>
+        <v>191.958793325853</v>
       </c>
       <c r="W32" t="n">
-        <v>217.25889280381</v>
+        <v>217.2588928038099</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365566</v>
+        <v>236.5591510365565</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327554</v>
+        <v>247.9557488327552</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>145.5211447459513</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
         <v>137.45025063969</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713363</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037105</v>
+        <v>40.06912696037091</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577153</v>
+        <v>26.26912180577139</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349923</v>
+        <v>9.890486203349781</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129372</v>
+        <v>8.83823605912923</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315681</v>
+        <v>9.305160387315539</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866352</v>
+        <v>25.57986310866337</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135394</v>
+        <v>16.1282307313538</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183285</v>
+        <v>1.110325916183143</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600596</v>
+        <v>6.375875534600453</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318434</v>
+        <v>69.9219769331842</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531298</v>
+        <v>89.19647561531283</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786261</v>
+        <v>142.667649078626</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599966</v>
+        <v>116.4772633599965</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306099</v>
+        <v>141.6441494306098</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641302</v>
+        <v>87.28925142641287</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.1641191824807</v>
+        <v>78.16411918248056</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235481</v>
       </c>
       <c r="C41" t="n">
-        <v>217.7550997812302</v>
+        <v>217.7550997812299</v>
       </c>
       <c r="D41" t="n">
-        <v>208.7364038257582</v>
+        <v>208.7364038257578</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956637</v>
+        <v>230.4785413956634</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6503574836409</v>
+        <v>249.6503574836405</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810634</v>
+        <v>251.5836253810631</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1337403593733</v>
+        <v>169.133740359373</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400149</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665912</v>
+        <v>24.99736431665875</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.75603550700811</v>
       </c>
       <c r="U41" t="n">
-        <v>67.18703948336703</v>
+        <v>91.97716162385507</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637276</v>
+        <v>173.2501600637272</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416845</v>
+        <v>122.7338073981934</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8505177744311</v>
+        <v>217.8505177744308</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706299</v>
+        <v>229.2471155706295</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824556</v>
+        <v>21.36049369824519</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543646045</v>
+        <v>7.560488543645675</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846538029</v>
+        <v>6.871229846537659</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105885</v>
+        <v>51.21334367105848</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318749</v>
+        <v>70.48784235318712</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165003</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787115</v>
+        <v>97.76863009787078</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684844</v>
+        <v>122.935516168484</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428753</v>
+        <v>68.58061816428716</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035522</v>
+        <v>59.45548592035485</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235481</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812303</v>
+        <v>217.7550997812299</v>
       </c>
       <c r="D44" t="n">
-        <v>208.7364038257583</v>
+        <v>208.7364038257578</v>
       </c>
       <c r="E44" t="n">
-        <v>143.9323837481662</v>
+        <v>230.4785413956634</v>
       </c>
       <c r="F44" t="n">
-        <v>249.650357483641</v>
+        <v>249.6503574836405</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810635</v>
+        <v>251.5836253810631</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593734</v>
+        <v>169.133740359373</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400154</v>
+        <v>10.72970550400112</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665917</v>
+        <v>24.99736431665875</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700853</v>
+        <v>61.75603550700811</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385507</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637277</v>
+        <v>173.2501600637272</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416846</v>
+        <v>198.5502595416841</v>
       </c>
       <c r="X44" t="n">
-        <v>217.8505177744312</v>
+        <v>217.8505177744308</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706299</v>
+        <v>142.7009579231377</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824519</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543646102</v>
+        <v>7.560488543645675</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846537659</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105848</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318755</v>
+        <v>70.48784235318712</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165003</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787078</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684845</v>
+        <v>122.935516168484</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428716</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035527</v>
+        <v>59.45548592035485</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>616.7822522308243</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="C2" t="n">
-        <v>234.8484935636316</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="D2" t="n">
-        <v>234.8484935636316</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="E2" t="n">
-        <v>234.8484935636316</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="F2" t="n">
-        <v>224.737706914206</v>
+        <v>557.5589813168967</v>
       </c>
       <c r="G2" t="n">
-        <v>212.674124408798</v>
+        <v>545.4953988114887</v>
       </c>
       <c r="H2" t="n">
         <v>212.674124408798</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7966482385286</v>
+        <v>340.2289019250647</v>
       </c>
       <c r="L2" t="n">
-        <v>593.6820213234748</v>
+        <v>688.1142750100109</v>
       </c>
       <c r="M2" t="n">
-        <v>986.9211875765627</v>
+        <v>1081.353441263099</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264278</v>
+        <v>1459.684799950815</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737112</v>
+        <v>1764.689384423649</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193166</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375556</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S2" t="n">
-        <v>1714.97901900591</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="T2" t="n">
-        <v>1490.620072736921</v>
+        <v>1677.849048106566</v>
       </c>
       <c r="U2" t="n">
-        <v>1235.734736450915</v>
+        <v>1422.96371182056</v>
       </c>
       <c r="V2" t="n">
-        <v>898.7554623468563</v>
+        <v>1085.984437716502</v>
       </c>
       <c r="W2" t="n">
-        <v>898.7554623468563</v>
+        <v>723.4495075741027</v>
       </c>
       <c r="X2" t="n">
-        <v>898.7554623468563</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="Y2" t="n">
-        <v>616.7822522308243</v>
+        <v>567.6697679663223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.7874008096991</v>
+        <v>564.9207538567823</v>
       </c>
       <c r="C3" t="n">
-        <v>689.0837280506538</v>
+        <v>403.217081097737</v>
       </c>
       <c r="D3" t="n">
-        <v>550.2450910408659</v>
+        <v>403.217081097737</v>
       </c>
       <c r="E3" t="n">
-        <v>403.2170810977372</v>
+        <v>403.217081097737</v>
       </c>
       <c r="F3" t="n">
-        <v>268.5232830476115</v>
+        <v>268.5232830476114</v>
       </c>
       <c r="G3" t="n">
         <v>139.794783070896</v>
       </c>
       <c r="H3" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J3" t="n">
-        <v>60.43302979372945</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>289.9235823539181</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L3" t="n">
-        <v>655.7454275240337</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.77878103426</v>
+        <v>1140.778781034259</v>
       </c>
       <c r="N3" t="n">
-        <v>1140.77878103426</v>
+        <v>1140.778781034259</v>
       </c>
       <c r="O3" t="n">
-        <v>1532.978731818411</v>
+        <v>1532.97873181841</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.074651094108</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974648</v>
+        <v>1933.062011974647</v>
       </c>
       <c r="S3" t="n">
-        <v>1807.825054299291</v>
+        <v>1780.262524987388</v>
       </c>
       <c r="T3" t="n">
-        <v>1619.139950465276</v>
+        <v>1591.577421153373</v>
       </c>
       <c r="U3" t="n">
-        <v>1400.645158063586</v>
+        <v>1391.968676078605</v>
       </c>
       <c r="V3" t="n">
-        <v>1400.645158063586</v>
+        <v>1163.573053526939</v>
       </c>
       <c r="W3" t="n">
-        <v>1400.645158063586</v>
+        <v>922.2571847602486</v>
       </c>
       <c r="X3" t="n">
-        <v>1202.728169941381</v>
+        <v>724.3401966380432</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.20684359096</v>
+        <v>724.3401966380432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.3943894779047</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="C4" t="n">
-        <v>422.3943894779047</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="D4" t="n">
-        <v>351.7102258125431</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7102258125431</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="F4" t="n">
-        <v>199.2295708383202</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="G4" t="n">
-        <v>199.2295708383202</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="K4" t="n">
         <v>73.46111336223746</v>
@@ -4510,28 +4510,28 @@
         <v>571.9161708635265</v>
       </c>
       <c r="R4" t="n">
-        <v>422.3943894779047</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="S4" t="n">
-        <v>422.3943894779047</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="T4" t="n">
-        <v>422.3943894779047</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="U4" t="n">
-        <v>422.3943894779047</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="V4" t="n">
-        <v>422.3943894779047</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="W4" t="n">
-        <v>422.3943894779047</v>
+        <v>52.58081619660453</v>
       </c>
       <c r="X4" t="n">
-        <v>422.3943894779047</v>
+        <v>52.58081619660453</v>
       </c>
       <c r="Y4" t="n">
-        <v>422.3943894779047</v>
+        <v>52.58081619660453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1108.589932258414</v>
+        <v>838.8956635856081</v>
       </c>
       <c r="C5" t="n">
-        <v>1108.589932258414</v>
+        <v>838.8956635856081</v>
       </c>
       <c r="D5" t="n">
-        <v>1108.589932258414</v>
+        <v>466.0716988128316</v>
       </c>
       <c r="E5" t="n">
-        <v>971.7101720067265</v>
+        <v>466.0716988128316</v>
       </c>
       <c r="F5" t="n">
-        <v>557.5589813168967</v>
+        <v>455.960912163406</v>
       </c>
       <c r="G5" t="n">
-        <v>545.4953988114887</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="H5" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J5" t="n">
         <v>111.8554698903997</v>
@@ -4571,46 +4571,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>699.8812150201288</v>
+        <v>593.6820213234735</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.120381273217</v>
+        <v>986.9211875765614</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264278</v>
+        <v>1365.252546264277</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737112</v>
+        <v>1670.257130737111</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193164</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375556</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="S5" t="n">
-        <v>1714.97901900591</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="T5" t="n">
-        <v>1490.620072736921</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="U5" t="n">
-        <v>1490.620072736921</v>
+        <v>1737.960944593695</v>
       </c>
       <c r="V5" t="n">
-        <v>1490.620072736921</v>
+        <v>1400.981670489637</v>
       </c>
       <c r="W5" t="n">
-        <v>1490.620072736921</v>
+        <v>1038.446740347238</v>
       </c>
       <c r="X5" t="n">
-        <v>1108.589932258414</v>
+        <v>1038.446740347238</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.589932258414</v>
+        <v>1038.446740347238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784.4758880695124</v>
+        <v>628.7375133838773</v>
       </c>
       <c r="C6" t="n">
-        <v>622.7722153104671</v>
+        <v>628.7375133838773</v>
       </c>
       <c r="D6" t="n">
-        <v>483.9335783006792</v>
+        <v>489.8988763740894</v>
       </c>
       <c r="E6" t="n">
-        <v>336.9055683575505</v>
+        <v>342.8708664309606</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9055683575505</v>
+        <v>208.177068380835</v>
       </c>
       <c r="G6" t="n">
         <v>208.177068380835</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2392109275331</v>
+        <v>108.239210927533</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J6" t="n">
         <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6016247108889</v>
+        <v>329.6016247108888</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810045</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.456823391231</v>
+        <v>1039.749277300684</v>
       </c>
       <c r="N6" t="n">
-        <v>1442.874700309957</v>
+        <v>1532.97873181841</v>
       </c>
       <c r="O6" t="n">
-        <v>1835.074651094108</v>
+        <v>1532.97873181841</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.074651094108</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="R6" t="n">
-        <v>1933.062011974648</v>
+        <v>1992.846280879701</v>
       </c>
       <c r="S6" t="n">
-        <v>1780.262524987389</v>
+        <v>1840.046793892441</v>
       </c>
       <c r="T6" t="n">
-        <v>1591.577421153374</v>
+        <v>1651.361690058427</v>
       </c>
       <c r="U6" t="n">
-        <v>1373.082628751684</v>
+        <v>1432.866897656737</v>
       </c>
       <c r="V6" t="n">
-        <v>1144.687006200018</v>
+        <v>1204.471275105071</v>
       </c>
       <c r="W6" t="n">
-        <v>1136.416657201194</v>
+        <v>1178.595270637765</v>
       </c>
       <c r="X6" t="n">
-        <v>1136.416657201194</v>
+        <v>980.6782825155593</v>
       </c>
       <c r="Y6" t="n">
-        <v>943.8953308507732</v>
+        <v>788.1569561651381</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.8732987622867</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="C7" t="n">
-        <v>361.257329223967</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="D7" t="n">
-        <v>361.257329223967</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="E7" t="n">
-        <v>361.257329223967</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="F7" t="n">
-        <v>208.776674249744</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223746</v>
+        <v>73.46111336223743</v>
       </c>
       <c r="L7" t="n">
         <v>174.0681927624969</v>
@@ -4747,28 +4747,28 @@
         <v>571.9161708635265</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9161708635265</v>
+        <v>422.3943894779047</v>
       </c>
       <c r="S7" t="n">
-        <v>571.9161708635265</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="T7" t="n">
-        <v>571.9161708635265</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="U7" t="n">
-        <v>571.9161708635265</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="V7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="W7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="X7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759402</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759402</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.0629940692133</v>
+        <v>1370.189991437883</v>
       </c>
       <c r="C8" t="n">
-        <v>841.0629940692133</v>
+        <v>1370.189991437883</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>997.366026665107</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1979.671604208138</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.136674065739</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="X8" t="n">
-        <v>1235.106533587232</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1235.106533587232</v>
+        <v>1764.233530955903</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>705.9267213501755</v>
+        <v>792.6085166265278</v>
       </c>
       <c r="C9" t="n">
-        <v>544.2230485911302</v>
+        <v>630.9048438674826</v>
       </c>
       <c r="D9" t="n">
-        <v>405.3844115813423</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
         <v>1406.916935000113</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1852.743432320892</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1634.248639919202</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V9" t="n">
-        <v>1497.100347370753</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W9" t="n">
-        <v>1255.784478604063</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X9" t="n">
-        <v>1057.867490481857</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y9" t="n">
-        <v>865.3461641314364</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>499.5858184863406</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1353.10085547714</v>
+        <v>1474.750908018352</v>
       </c>
       <c r="C11" t="n">
-        <v>1247.395764477011</v>
+        <v>1207.393074106926</v>
       </c>
       <c r="D11" t="n">
-        <v>989.1477244600014</v>
+        <v>1207.393074106926</v>
       </c>
       <c r="E11" t="n">
-        <v>708.9379293218748</v>
+        <v>927.1832789687993</v>
       </c>
       <c r="F11" t="n">
-        <v>409.3626633878116</v>
+        <v>627.608013034736</v>
       </c>
       <c r="G11" t="n">
-        <v>107.834601597766</v>
+        <v>326.0799512446904</v>
       </c>
       <c r="H11" t="n">
-        <v>107.834601597766</v>
+        <v>107.8346015977661</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J11" t="n">
-        <v>132.1275026206738</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K11" t="n">
-        <v>372.2678746654566</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L11" t="n">
-        <v>832.4491116035294</v>
+        <v>934.2093446711162</v>
       </c>
       <c r="M11" t="n">
-        <v>1225.688277856617</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.31550039746</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O11" t="n">
-        <v>2021.320084870294</v>
+        <v>2044.781364120705</v>
       </c>
       <c r="P11" t="n">
-        <v>2361.772845179474</v>
+        <v>2272.938260576758</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S11" t="n">
-        <v>2479.666378116423</v>
+        <v>2407.013327502542</v>
       </c>
       <c r="T11" t="n">
-        <v>2369.883356603201</v>
+        <v>2364.388604951912</v>
       </c>
       <c r="U11" t="n">
-        <v>2369.883356603201</v>
+        <v>2224.079193421673</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.480007254909</v>
+        <v>2001.675844073381</v>
       </c>
       <c r="W11" t="n">
-        <v>1899.521001868276</v>
+        <v>1753.716838686748</v>
       </c>
       <c r="X11" t="n">
-        <v>1632.066786145536</v>
+        <v>1753.716838686748</v>
       </c>
       <c r="Y11" t="n">
-        <v>1353.10085547714</v>
+        <v>1474.750908018352</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840.3334774161613</v>
+        <v>900.1177463212146</v>
       </c>
       <c r="C12" t="n">
-        <v>678.629804657116</v>
+        <v>738.4140735621693</v>
       </c>
       <c r="D12" t="n">
-        <v>539.7911676473281</v>
+        <v>599.5754365523813</v>
       </c>
       <c r="E12" t="n">
-        <v>392.7631577041993</v>
+        <v>452.5474266092526</v>
       </c>
       <c r="F12" t="n">
-        <v>258.0693596540737</v>
+        <v>317.8536285591269</v>
       </c>
       <c r="G12" t="n">
-        <v>129.3408596773582</v>
+        <v>189.1251285824115</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>89.18727112910956</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5133,37 +5133,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055131</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.894748330828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R12" t="n">
-        <v>2419.882109211369</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S12" t="n">
-        <v>2267.082622224109</v>
+        <v>2326.866891129162</v>
       </c>
       <c r="T12" t="n">
-        <v>2078.397518390095</v>
+        <v>2138.181787295148</v>
       </c>
       <c r="U12" t="n">
-        <v>1859.902725988405</v>
+        <v>1919.686994893458</v>
       </c>
       <c r="V12" t="n">
-        <v>1631.507103436739</v>
+        <v>1691.291372341792</v>
       </c>
       <c r="W12" t="n">
-        <v>1390.191234670049</v>
+        <v>1449.975503575102</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.274246547843</v>
+        <v>1252.058515452896</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.7529201974222</v>
+        <v>1059.537189102475</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.234824445623</v>
+        <v>347.2348244456217</v>
       </c>
       <c r="C13" t="n">
-        <v>292.194779663069</v>
+        <v>292.1947796630683</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465981</v>
+        <v>253.6988112465974</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636826</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452269</v>
+        <v>178.3609915452259</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688433</v>
+        <v>124.0171676688424</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388352</v>
+        <v>79.22044720388271</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J13" t="n">
         <v>103.0270918774858</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752559</v>
+        <v>248.9271434752558</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286421</v>
+        <v>461.8300867286418</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093705</v>
+        <v>692.1194567093702</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120976</v>
+        <v>922.8376623120971</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.597172660914</v>
+        <v>1133.597172660913</v>
       </c>
       <c r="P13" t="n">
         <v>1308.861520242178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.386935841786</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R13" t="n">
         <v>1348.44107921193</v>
@@ -5227,22 +5227,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.70421294283</v>
+        <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876959</v>
+        <v>958.0898981876951</v>
       </c>
       <c r="V13" t="n">
-        <v>811.930518501885</v>
+        <v>811.9305185018841</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750506</v>
+        <v>640.3500417750495</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261928</v>
+        <v>523.6735024261915</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742363</v>
+        <v>416.2142683742351</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>954.977496581382</v>
+        <v>1249.921414846242</v>
       </c>
       <c r="C14" t="n">
-        <v>687.6196626699559</v>
+        <v>1247.395764477012</v>
       </c>
       <c r="D14" t="n">
-        <v>687.6196626699559</v>
+        <v>989.1477244600019</v>
       </c>
       <c r="E14" t="n">
-        <v>407.4098675318293</v>
+        <v>708.9379293218751</v>
       </c>
       <c r="F14" t="n">
-        <v>107.834601597766</v>
+        <v>409.3626633878117</v>
       </c>
       <c r="G14" t="n">
         <v>107.834601597766</v>
@@ -5273,55 +5273,55 @@
         <v>107.834601597766</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J14" t="n">
         <v>121.5918718351341</v>
       </c>
       <c r="K14" t="n">
-        <v>372.2678746654568</v>
+        <v>361.7322438799168</v>
       </c>
       <c r="L14" t="n">
-        <v>832.4491116035297</v>
+        <v>821.9134808179897</v>
       </c>
       <c r="M14" t="n">
-        <v>1225.688277856618</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N14" t="n">
-        <v>1604.019636544333</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.320084870294</v>
+        <v>2123.08031793788</v>
       </c>
       <c r="P14" t="n">
-        <v>2361.772845179474</v>
+        <v>2351.237214393934</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866011</v>
+        <v>2456.205098866009</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116423</v>
+        <v>2407.013327502543</v>
       </c>
       <c r="T14" t="n">
-        <v>2391.537023999935</v>
+        <v>2407.013327502543</v>
       </c>
       <c r="U14" t="n">
-        <v>2251.227612469695</v>
+        <v>2266.703915972304</v>
       </c>
       <c r="V14" t="n">
-        <v>2028.824263121403</v>
+        <v>2044.300566624011</v>
       </c>
       <c r="W14" t="n">
-        <v>1780.86525773477</v>
+        <v>1796.341561237378</v>
       </c>
       <c r="X14" t="n">
-        <v>1513.41104201203</v>
+        <v>1528.887345514638</v>
       </c>
       <c r="Y14" t="n">
-        <v>1234.445111343635</v>
+        <v>1249.921414846242</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.3334774161613</v>
+        <v>860.5238027544334</v>
       </c>
       <c r="C15" t="n">
-        <v>678.629804657116</v>
+        <v>698.8201299953881</v>
       </c>
       <c r="D15" t="n">
-        <v>539.7911676473281</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7631577041993</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F15" t="n">
-        <v>258.0693596540737</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J15" t="n">
-        <v>49.59332756232847</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K15" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L15" t="n">
-        <v>644.9057252926327</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.939078802859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.204724925981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.404675710132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.894748330828</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211369</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.082622224109</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T15" t="n">
-        <v>2078.397518390095</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U15" t="n">
-        <v>1859.902725988405</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V15" t="n">
-        <v>1631.507103436739</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W15" t="n">
-        <v>1390.191234670049</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X15" t="n">
-        <v>1192.274246547843</v>
+        <v>1212.464571886115</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.7529201974222</v>
+        <v>1019.943245535694</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456215</v>
+        <v>347.2348244456222</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630683</v>
+        <v>292.1947796630691</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465975</v>
+        <v>253.6988112465983</v>
       </c>
       <c r="E16" t="n">
-        <v>216.265721763683</v>
+        <v>216.2657217636835</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3609915452267</v>
+        <v>178.360991545227</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688434</v>
+        <v>124.0171676688433</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388351</v>
+        <v>79.2204472038835</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774855</v>
+        <v>103.0270918774859</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752551</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L16" t="n">
-        <v>461.830086728641</v>
+        <v>461.8300867286421</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093693</v>
+        <v>692.1194567093704</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120961</v>
+        <v>922.8376623120972</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.861520242177</v>
+        <v>1308.861520242178</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841784</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.441079211929</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371383</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.704212942828</v>
+        <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876946</v>
+        <v>958.0898981876953</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018837</v>
+        <v>811.9305185018843</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750492</v>
+        <v>640.3500417750498</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261915</v>
+        <v>523.6735024261918</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.214268374235</v>
+        <v>416.2142683742355</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C17" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187278</v>
+        <v>916.6170176187276</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782407</v>
+        <v>694.5624337782405</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418171</v>
+        <v>453.1423791418168</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494111</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012642</v>
+        <v>49.67939030012636</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5918718351341</v>
+        <v>290.8856582810774</v>
       </c>
       <c r="K17" t="n">
-        <v>361.7322438799169</v>
+        <v>700.3198167718035</v>
       </c>
       <c r="L17" t="n">
-        <v>709.6176169648631</v>
+        <v>1048.20518985675</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.856783217951</v>
+        <v>1441.444356109838</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.188141905667</v>
+        <v>1819.775714797553</v>
       </c>
       <c r="O17" t="n">
-        <v>1786.192726378501</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P17" t="n">
-        <v>2183.643409280497</v>
+        <v>2352.937195726441</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273194</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800183</v>
+        <v>2465.168538800182</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.5407285846</v>
+        <v>2413.540728584599</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528351999</v>
       </c>
       <c r="V17" t="n">
         <v>2167.138390301347</v>
@@ -5555,7 +5555,7 @@
         <v>1977.334596212354</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y17" t="n">
         <v>1547.224872416498</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161599</v>
       </c>
       <c r="C18" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571146</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473267</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J18" t="n">
         <v>109.8474740954346</v>
@@ -5601,43 +5601,43 @@
         <v>705.1598718257389</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147858</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.59887827098</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055131</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.894748330828</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.882109211368</v>
       </c>
       <c r="S18" t="n">
-        <v>2267.082622224109</v>
+        <v>2267.082622224108</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390093</v>
       </c>
       <c r="U18" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V18" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.507103436737</v>
       </c>
       <c r="W18" t="n">
-        <v>1390.191234670049</v>
+        <v>1390.191234670047</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.274246547843</v>
+        <v>1192.274246547842</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.7529201974222</v>
+        <v>999.7529201974208</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="G19" t="n">
-        <v>53.32886837390152</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="H19" t="n">
-        <v>53.32886837390152</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="I19" t="n">
-        <v>53.32886837390152</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="J19" t="n">
-        <v>53.32886837390152</v>
+        <v>49.59332756232844</v>
       </c>
       <c r="K19" t="n">
-        <v>86.93305611854493</v>
+        <v>83.19751530697185</v>
       </c>
       <c r="L19" t="n">
-        <v>187.5401355188044</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M19" t="n">
-        <v>305.5336416464062</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N19" t="n">
-        <v>423.9559833960066</v>
+        <v>420.2204425844334</v>
       </c>
       <c r="O19" t="n">
-        <v>522.5894082193814</v>
+        <v>522.589408219381</v>
       </c>
       <c r="P19" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475188</v>
       </c>
       <c r="Q19" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475188</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475188</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046128</v>
+        <v>544.5792654046124</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736974</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162035</v>
+        <v>369.6723448162033</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280322</v>
+        <v>281.668176428032</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988372</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476191</v>
+        <v>109.721582947619</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330225</v>
+        <v>60.41756019330219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C20" t="n">
         <v>1116.709846338098</v>
       </c>
       <c r="D20" t="n">
-        <v>916.617017618728</v>
+        <v>916.6170176187272</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782409</v>
+        <v>694.5624337782402</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418167</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012642</v>
+        <v>49.67939030012627</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5918718351341</v>
+        <v>242.7233851412926</v>
       </c>
       <c r="K20" t="n">
-        <v>361.7322438799169</v>
+        <v>482.8637571860754</v>
       </c>
       <c r="L20" t="n">
-        <v>878.9114034108063</v>
+        <v>830.7491302710216</v>
       </c>
       <c r="M20" t="n">
-        <v>1272.150569663894</v>
+        <v>1223.98829652411</v>
       </c>
       <c r="N20" t="n">
-        <v>1650.48192835161</v>
+        <v>1602.319655211825</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.780299270387</v>
+        <v>1907.324239684659</v>
       </c>
       <c r="P20" t="n">
-        <v>2352.93719572644</v>
+        <v>2304.774922586656</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.666378116423</v>
+        <v>2399.207176273193</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800183</v>
+        <v>2465.168538800182</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584599</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528351999</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416497</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544334</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953881</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J21" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3380266556233</v>
+        <v>265.4780334675153</v>
       </c>
       <c r="L21" t="n">
-        <v>705.1598718257389</v>
+        <v>631.299878637631</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147857</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270979</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.79882905513</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211369</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224109</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.397518390095</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U21" t="n">
-        <v>1859.902725988405</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V21" t="n">
-        <v>1631.507103436739</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W21" t="n">
-        <v>1390.191234670049</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.274246547843</v>
+        <v>1212.464571886115</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535694</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232847</v>
+        <v>52.64650226376466</v>
       </c>
       <c r="D22" t="n">
-        <v>49.59332756232847</v>
+        <v>52.64650226376466</v>
       </c>
       <c r="E22" t="n">
-        <v>49.59332756232847</v>
+        <v>52.64650226376466</v>
       </c>
       <c r="F22" t="n">
-        <v>49.59332756232847</v>
+        <v>52.64650226376466</v>
       </c>
       <c r="G22" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158583</v>
       </c>
       <c r="H22" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158583</v>
       </c>
       <c r="I22" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158583</v>
       </c>
       <c r="J22" t="n">
-        <v>49.59332756232847</v>
+        <v>53.49864670158583</v>
       </c>
       <c r="K22" t="n">
-        <v>83.19751530697188</v>
+        <v>87.10283444622924</v>
       </c>
       <c r="L22" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464887</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740914</v>
+        <v>305.7034199740905</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236918</v>
+        <v>424.1257617236909</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193814</v>
+        <v>522.5894082193805</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046128</v>
+        <v>544.579265404612</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736969</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162035</v>
+        <v>369.672344816203</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280322</v>
+        <v>281.6681764280317</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988369</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476189</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330225</v>
+        <v>60.4175601933021</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951884</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187284</v>
+        <v>916.6170176187272</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782413</v>
+        <v>694.5624337782402</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418176</v>
+        <v>453.1423791418167</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494117</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012695</v>
+        <v>49.67939030012627</v>
       </c>
       <c r="I23" t="n">
-        <v>49.593327562329</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J23" t="n">
-        <v>290.8856582810779</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K23" t="n">
-        <v>531.0260303258607</v>
+        <v>531.0260303258602</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.20518985675</v>
+        <v>911.2083321142504</v>
       </c>
       <c r="M23" t="n">
-        <v>1441.444356109838</v>
+        <v>1304.447498367338</v>
       </c>
       <c r="N23" t="n">
-        <v>1819.775714797554</v>
+        <v>1682.778857055054</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.780299270388</v>
+        <v>2157.077227973831</v>
       </c>
       <c r="P23" t="n">
-        <v>2385.234124429886</v>
+        <v>2385.234124429885</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800183</v>
+        <v>2465.168538800182</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.5407285846</v>
+        <v>2413.540728584599</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528351999</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301347</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212354</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787253</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416497</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161594</v>
       </c>
       <c r="C24" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571142</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473262</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577041975</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540718</v>
       </c>
       <c r="G24" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773564</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J24" t="n">
-        <v>49.59332756232847</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>631.2998786376328</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.333232147859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.598878270981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330829</v>
+        <v>2321.894748330827</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116423</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211369</v>
+        <v>2419.882109211367</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224109</v>
+        <v>2267.082622224108</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390095</v>
+        <v>2078.397518390093</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988405</v>
+        <v>1859.902725988403</v>
       </c>
       <c r="V24" t="n">
-        <v>1631.507103436739</v>
+        <v>1631.507103436737</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670047</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547842</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974204</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232847</v>
+        <v>49.59332756232843</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697188</v>
+        <v>83.19751530697184</v>
       </c>
       <c r="L25" t="n">
-        <v>187.7099138464897</v>
+        <v>183.8045947072313</v>
       </c>
       <c r="M25" t="n">
-        <v>305.7034199740914</v>
+        <v>305.7034199740905</v>
       </c>
       <c r="N25" t="n">
-        <v>424.1257617236918</v>
+        <v>424.1257617236909</v>
       </c>
       <c r="O25" t="n">
-        <v>522.5894082193814</v>
+        <v>522.5894082193805</v>
       </c>
       <c r="P25" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="Q25" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475192</v>
+        <v>585.5578919475183</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046128</v>
+        <v>544.579265404612</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736976</v>
+        <v>484.1314482736969</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162035</v>
+        <v>369.672344816203</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280322</v>
+        <v>281.6681764280317</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988373</v>
+        <v>168.2429109988369</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476191</v>
+        <v>109.7215829476189</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330225</v>
+        <v>60.4175601933021</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1476.884862868428</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.884862868428</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.636822851418</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="E26" t="n">
-        <v>938.4270277132912</v>
+        <v>875.2905867457994</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792279</v>
+        <v>575.7153208117361</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3236999891822</v>
+        <v>279.0824259537445</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422579</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J26" t="n">
         <v>245.1314844327526</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306622</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
@@ -6236,31 +6236,31 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.664418550932</v>
+        <v>2811.664418550931</v>
       </c>
       <c r="Q26" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R26" t="n">
         <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2859.417743213907</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V26" t="n">
-        <v>2496.704982335375</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
         <v>2248.745976948741</v>
@@ -6269,7 +6269,7 @@
         <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.325830557606</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J27" t="n">
         <v>121.0912228399263</v>
@@ -6327,28 +6327,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6376,34 +6376,34 @@
         <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I28" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219774</v>
+        <v>114.270840621978</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197477</v>
+        <v>260.1708922197481</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731338</v>
+        <v>473.0738354731342</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538623</v>
+        <v>703.3632054538625</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565892</v>
+        <v>934.0814110565896</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P28" t="n">
         <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586278</v>
       </c>
       <c r="R28" t="n">
         <v>1359.684827956422</v>
@@ -6415,10 +6415,10 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321871</v>
+        <v>969.3336469321875</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463763</v>
+        <v>823.1742672463765</v>
       </c>
       <c r="W28" t="n">
         <v>651.593790519542</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1442.714634989808</v>
+        <v>1444.667430845791</v>
       </c>
       <c r="C29" t="n">
-        <v>1175.356801078382</v>
+        <v>1177.309596934364</v>
       </c>
       <c r="D29" t="n">
-        <v>917.108761061372</v>
+        <v>919.0615569173544</v>
       </c>
       <c r="E29" t="n">
-        <v>636.8989659232453</v>
+        <v>638.8517617792278</v>
       </c>
       <c r="F29" t="n">
-        <v>337.323699989182</v>
+        <v>638.8517617792278</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>337.3236999891821</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682011</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J29" t="n">
         <v>245.1314844327524</v>
@@ -6479,34 +6479,34 @@
         <v>2471.211658241752</v>
       </c>
       <c r="P29" t="n">
-        <v>2811.664418550932</v>
+        <v>2811.664418550931</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213907</v>
+        <v>2859.417743213905</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2516.561401529829</v>
+        <v>2518.514197385812</v>
       </c>
       <c r="W29" t="n">
-        <v>2268.602396143197</v>
+        <v>2270.555191999179</v>
       </c>
       <c r="X29" t="n">
-        <v>2001.148180420456</v>
+        <v>2003.100976276439</v>
       </c>
       <c r="Y29" t="n">
-        <v>1722.182249752061</v>
+        <v>1724.135045608044</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.4372193487595</v>
+        <v>940.1498368088643</v>
       </c>
       <c r="C30" t="n">
         <v>778.446164049819</v>
@@ -6531,13 +6531,13 @@
         <v>357.8857190467766</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H30" t="n">
         <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J30" t="n">
         <v>121.0912228399263</v>
@@ -6564,28 +6564,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.501260322693</v>
+        <v>2178.213877782798</v>
       </c>
       <c r="U30" t="n">
-        <v>1945.006467921003</v>
+        <v>1959.719085381108</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.610845369337</v>
+        <v>1731.323462829442</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.294976602647</v>
+        <v>1490.007594062752</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.377988480441</v>
+        <v>1292.090605940546</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.85666213002</v>
+        <v>1099.569279590125</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901141</v>
+        <v>358.4785731901139</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075608</v>
+        <v>303.4385284075606</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910898</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081752</v>
+        <v>227.509470508175</v>
       </c>
       <c r="F31" t="n">
         <v>189.6047402897187</v>
@@ -6613,31 +6613,31 @@
         <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837539</v>
+        <v>90.46419594837531</v>
       </c>
       <c r="I31" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197476</v>
+        <v>260.170892219747</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731338</v>
+        <v>473.0738354731332</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538622</v>
+        <v>703.3632054538615</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565894</v>
+        <v>934.0814110565884</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q31" t="n">
         <v>1394.630684586277</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321873</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463763</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195418</v>
       </c>
       <c r="X31" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706839</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187274</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1303.684062512361</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813783</v>
+        <v>822.2373839813779</v>
       </c>
       <c r="F32" t="n">
-        <v>551.167696359392</v>
+        <v>551.1676963593918</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814235</v>
+        <v>278.1452128814233</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657559</v>
+        <v>88.40544154657539</v>
       </c>
       <c r="I32" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321495</v>
       </c>
       <c r="J32" t="n">
-        <v>130.6682900960207</v>
+        <v>130.6682900960206</v>
       </c>
       <c r="K32" t="n">
-        <v>511.0428432975967</v>
+        <v>511.0428432975968</v>
       </c>
       <c r="L32" t="n">
-        <v>921.9867104232693</v>
+        <v>858.928216382543</v>
       </c>
       <c r="M32" t="n">
-        <v>1455.460057833151</v>
+        <v>1392.401563792424</v>
       </c>
       <c r="N32" t="n">
-        <v>1974.02559767766</v>
+        <v>1910.967103636934</v>
       </c>
       <c r="O32" t="n">
-        <v>2419.264363307287</v>
+        <v>2279.030182150491</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.42125976334</v>
+        <v>2647.421259763338</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606671</v>
+        <v>2882.087694606668</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.48729116075</v>
+        <v>2933.487291160748</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858948</v>
+        <v>2889.339818858945</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657802</v>
+        <v>2808.0623756578</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.25854243964</v>
+        <v>2696.258542439637</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403424</v>
+        <v>2502.360771403422</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328868</v>
+        <v>2282.907344328867</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
         <v>1793.498354561886</v>
@@ -6756,25 +6756,25 @@
         <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>127.052031133154</v>
+        <v>112.3394136730496</v>
       </c>
       <c r="I33" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321495</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563211</v>
@@ -6783,7 +6783,7 @@
         <v>348.4144449165098</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866253</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219698</v>
+        <v>156.7721945219687</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514935</v>
+        <v>130.2377280514926</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470996</v>
+        <v>120.2473379470989</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762619</v>
+        <v>111.3198267762613</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698824</v>
+        <v>101.9206748698819</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557583</v>
+        <v>76.0824293055755</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269307</v>
+        <v>59.79128715269287</v>
       </c>
       <c r="I34" t="n">
-        <v>58.669745823215</v>
+        <v>58.66974582321495</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8464935499208</v>
+        <v>58.66974582321495</v>
       </c>
       <c r="K34" t="n">
-        <v>157.4506812945642</v>
+        <v>92.27393356785836</v>
       </c>
       <c r="L34" t="n">
-        <v>258.0577606948237</v>
+        <v>192.8810129681179</v>
       </c>
       <c r="M34" t="n">
-        <v>516.2854479792187</v>
+        <v>451.1087002525131</v>
       </c>
       <c r="N34" t="n">
-        <v>634.7077897288191</v>
+        <v>709.7652231589069</v>
       </c>
       <c r="O34" t="n">
-        <v>733.1714362245087</v>
+        <v>808.2288696545966</v>
       </c>
       <c r="P34" t="n">
-        <v>936.3741011094398</v>
+        <v>936.3741011094377</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094398</v>
+        <v>936.3741011094377</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916614</v>
+        <v>929.9338227916594</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631924</v>
+        <v>859.3055632631905</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467147</v>
+        <v>769.2081131467129</v>
       </c>
       <c r="U34" t="n">
-        <v>625.099376703658</v>
+        <v>625.0993767036563</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299241</v>
+        <v>507.4455753299224</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151666</v>
+        <v>364.3706769151651</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783857</v>
+        <v>276.1997158783844</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385062</v>
+        <v>197.246060138505</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073379</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529433</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.40052821597</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7020,46 +7020,46 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M36" t="n">
         <v>1191.700572135723</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O36" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P36" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670348</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
         <v>74.23504503930334</v>
@@ -7169,28 +7169,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>915.7684941687087</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421797</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7248,16 +7248,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228438</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950198</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>82.50168994950198</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>116.1058776941454</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
         <v>566.4101965415339</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.683981160804</v>
+        <v>1391.845894793124</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.729334917137</v>
+        <v>1171.891248549457</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8844825678867</v>
+        <v>961.046396200207</v>
       </c>
       <c r="E41" t="n">
-        <v>739.0778750975193</v>
+        <v>728.2397887298399</v>
       </c>
       <c r="F41" t="n">
-        <v>486.9057968312153</v>
+        <v>476.0677104635363</v>
       </c>
       <c r="G41" t="n">
-        <v>232.780922708929</v>
+        <v>221.9428363412504</v>
       </c>
       <c r="H41" t="n">
-        <v>61.93876072976401</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>281.8549467211889</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>521.9953187659717</v>
+        <v>521.9953187659721</v>
       </c>
       <c r="L41" t="n">
-        <v>869.8806918509179</v>
+        <v>869.8806918509183</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.431753231266</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1698.763111918982</v>
+        <v>1768.684255402565</v>
       </c>
       <c r="O41" t="n">
-        <v>2162.523424478113</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2390.680320934167</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2485.112574620704</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7439,22 +7439,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.783855158167</v>
+        <v>2467.404021312705</v>
       </c>
       <c r="U41" t="n">
-        <v>2461.918158710321</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2286.917997029788</v>
+        <v>2199.497635769692</v>
       </c>
       <c r="W41" t="n">
-        <v>2086.362179310915</v>
+        <v>2075.524092943234</v>
       </c>
       <c r="X41" t="n">
-        <v>1866.311151255934</v>
+        <v>1855.473064888253</v>
       </c>
       <c r="Y41" t="n">
-        <v>1634.748408255298</v>
+        <v>1623.910321887617</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550399</v>
+        <v>58.73753147687935</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057071001</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057071001</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057071001</v>
+        <v>58.04131057070964</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057071001</v>
+        <v>58.04131057070964</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>53.65527286754958</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>71.07759714003235</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>71.07759714003235</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>104.6817848846758</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>289.8109430087076</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.8044491363094</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859097</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373815994</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097372</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097372</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097372</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369505</v>
+        <v>628.9876347283232</v>
       </c>
       <c r="T43" t="n">
-        <v>564.728430176155</v>
+        <v>557.7877939675282</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887806</v>
+        <v>432.5766668801542</v>
       </c>
       <c r="V43" t="n">
-        <v>340.761111070729</v>
+        <v>333.8204748621029</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116538</v>
+        <v>209.643185803028</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305553</v>
+        <v>140.3698341219299</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.2544239463581</v>
+        <v>80.31378773773309</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.263619900706</v>
+        <v>1402.683981160802</v>
       </c>
       <c r="C44" t="n">
-        <v>1095.308973657039</v>
+        <v>1182.729334917135</v>
       </c>
       <c r="D44" t="n">
-        <v>884.4641213077883</v>
+        <v>971.8844825678848</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0778750975195</v>
+        <v>739.0778750975178</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312155</v>
+        <v>486.9057968312142</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089292</v>
+        <v>232.7809227089283</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976407</v>
+        <v>61.93876072976363</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>521.9953187659717</v>
+        <v>521.9953187659721</v>
       </c>
       <c r="L44" t="n">
-        <v>869.8806918509179</v>
+        <v>869.8806918509183</v>
       </c>
       <c r="M44" t="n">
-        <v>1390.35289671485</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N44" t="n">
-        <v>1768.684255402565</v>
+        <v>1800.20694487802</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>2105.211529350854</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2333.368425806907</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2485.112574620703</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7676,22 +7676,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.404021312704</v>
+        <v>2467.404021312705</v>
       </c>
       <c r="U44" t="n">
-        <v>2374.497797450223</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.497635769691</v>
+        <v>2199.497635769692</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050817</v>
+        <v>1998.941818050819</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995836</v>
+        <v>1778.890789995839</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.3280469952</v>
+        <v>1634.748408255295</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550411</v>
+        <v>58.73753147687934</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070963</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070963</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>68.52299863456847</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>68.52299863456847</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>102.1271863792119</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>202.7342657794714</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>320.7277719070731</v>
+        <v>400.8638129276817</v>
       </c>
       <c r="N46" t="n">
-        <v>439.1501136566735</v>
+        <v>519.2861546772821</v>
       </c>
       <c r="O46" t="n">
-        <v>537.6137601523632</v>
+        <v>617.7498011729717</v>
       </c>
       <c r="P46" t="n">
-        <v>600.582243880501</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011095</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369511</v>
+        <v>628.9876347283232</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761556</v>
+        <v>557.7877939675282</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887811</v>
+        <v>432.5766668801542</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707293</v>
+        <v>333.8204748621029</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116541</v>
+        <v>209.643185803028</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305555</v>
+        <v>140.3698341219299</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635827</v>
+        <v>80.31378773773307</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>314.1171235176112</v>
+        <v>409.5032383524962</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>123.8395152789247</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,7 +8064,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>565.3377522113923</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
@@ -8219,13 +8219,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>435.6876660906813</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>461.2790889106763</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8301,16 +8301,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>463.2877484401038</v>
       </c>
       <c r="N6" t="n">
-        <v>371.7837036118765</v>
+        <v>604.9267112876337</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,7 +8541,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8781,10 +8781,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343868</v>
       </c>
       <c r="P12" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>400.2583197824233</v>
+        <v>339.3955455065566</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>530.8105291496388</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>330.0615286668555</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>339.395545506558</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>468.349169445002</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>339.3955455065562</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466203</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C11" t="n">
-        <v>160.0362154821846</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774081</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>66.48671597296672</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>262.1838617067735</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.062896150455</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.9265201077408</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>21.43713072276657</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.48638060234421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.846215262733963</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>19.6578550025097</v>
+        <v>21.59112289993396</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400112</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25679,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700848</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>24.79012214048841</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>75.81645214349072</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>86.54615764749762</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>86.54615764749177</v>
       </c>
     </row>
     <row r="45">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612395.5842301104</v>
+        <v>612395.5842301103</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>627606.3637349888</v>
+        <v>627606.3637349891</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627606.3637349888</v>
+        <v>627606.3637349891</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710052.2559571185</v>
+        <v>710052.2559571186</v>
       </c>
       <c r="C2" t="n">
-        <v>710052.255957118</v>
+        <v>710052.2559571184</v>
       </c>
       <c r="D2" t="n">
         <v>710052.2559571184</v>
       </c>
       <c r="E2" t="n">
-        <v>646465.028070615</v>
+        <v>646465.0280706151</v>
       </c>
       <c r="F2" t="n">
-        <v>646465.0280706158</v>
+        <v>646465.0280706157</v>
       </c>
       <c r="G2" t="n">
-        <v>710052.2559571178</v>
+        <v>710052.255957118</v>
       </c>
       <c r="H2" t="n">
+        <v>710052.2559571177</v>
+      </c>
+      <c r="I2" t="n">
         <v>710052.2559571179</v>
       </c>
-      <c r="I2" t="n">
-        <v>710052.2559571184</v>
-      </c>
       <c r="J2" t="n">
-        <v>686625.3520155767</v>
+        <v>686625.3520155763</v>
       </c>
       <c r="K2" t="n">
         <v>686625.3520155768</v>
       </c>
       <c r="L2" t="n">
-        <v>710052.2559571171</v>
+        <v>710052.2559571168</v>
       </c>
       <c r="M2" t="n">
-        <v>710052.2559571189</v>
+        <v>710052.2559571191</v>
       </c>
       <c r="N2" t="n">
-        <v>710052.2559571189</v>
+        <v>710052.2559571188</v>
       </c>
       <c r="O2" t="n">
-        <v>703679.8623695334</v>
+        <v>703679.8623695333</v>
       </c>
       <c r="P2" t="n">
         <v>703679.8623695332</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528439</v>
+        <v>8415.473351528546</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405801</v>
+        <v>118993.61014058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773057</v>
+        <v>46058.92734773064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.515593756</v>
+        <v>211812.5155937558</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089555</v>
+        <v>68635.34537089577</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423358</v>
+        <v>19582.70168423353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430322</v>
+        <v>40069.40998430336</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614257</v>
       </c>
       <c r="C4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614257</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>138310.8849250983</v>
+        <v>138310.8849250982</v>
       </c>
       <c r="F4" t="n">
-        <v>138310.8849250983</v>
+        <v>138310.8849250982</v>
       </c>
       <c r="G4" t="n">
-        <v>177298.4012420844</v>
+        <v>177298.4012420843</v>
       </c>
       <c r="H4" t="n">
         <v>177298.4012420844</v>
       </c>
       <c r="I4" t="n">
-        <v>177298.4012420843</v>
+        <v>177298.4012420844</v>
       </c>
       <c r="J4" t="n">
         <v>161896.3971701087</v>
       </c>
       <c r="K4" t="n">
-        <v>161896.3971701088</v>
+        <v>161896.3971701087</v>
       </c>
       <c r="L4" t="n">
         <v>176099.8977090712</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>171709.230690006</v>
+        <v>171709.2306900062</v>
       </c>
       <c r="P4" t="n">
-        <v>171709.2306900059</v>
+        <v>171709.2306900062</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937146</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147923</v>
+        <v>47226.88953147921</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147924</v>
+        <v>47226.88953147921</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547466</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547466</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547466</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823982</v>
+        <v>56497.4385182398</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52317.76029749521</v>
+        <v>52317.76029749525</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.7602974952</v>
+        <v>52317.76029749523</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286094.0277795092</v>
+        <v>286094.0277795094</v>
       </c>
       <c r="C6" t="n">
-        <v>453056.1838263209</v>
+        <v>453056.1838263212</v>
       </c>
       <c r="D6" t="n">
-        <v>450294.9886353854</v>
+        <v>450294.9886353852</v>
       </c>
       <c r="E6" t="n">
-        <v>341933.6434734574</v>
+        <v>341761.7861007915</v>
       </c>
       <c r="F6" t="n">
-        <v>460927.2536140383</v>
+        <v>460755.396241372</v>
       </c>
       <c r="G6" t="n">
-        <v>434627.8778818281</v>
+        <v>434627.8778818284</v>
       </c>
       <c r="H6" t="n">
+        <v>480686.8052295586</v>
+      </c>
+      <c r="I6" t="n">
         <v>480686.8052295588</v>
       </c>
-      <c r="I6" t="n">
-        <v>480686.8052295593</v>
-      </c>
       <c r="J6" t="n">
-        <v>257144.300674419</v>
+        <v>257080.9847178202</v>
       </c>
       <c r="K6" t="n">
-        <v>468956.8162681751</v>
+        <v>468893.5003115764</v>
       </c>
       <c r="L6" t="n">
-        <v>408819.5743589105</v>
+        <v>408819.5743589101</v>
       </c>
       <c r="M6" t="n">
-        <v>462043.6168400033</v>
+        <v>462043.6168400035</v>
       </c>
       <c r="N6" t="n">
-        <v>481626.3185242369</v>
+        <v>481626.3185242368</v>
       </c>
       <c r="O6" t="n">
-        <v>439583.4613977291</v>
+        <v>439566.2387123566</v>
       </c>
       <c r="P6" t="n">
-        <v>479652.8713820321</v>
+        <v>479635.6486966599</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
         <v>171.003824692872</v>
       </c>
       <c r="H2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="3">
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291055</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291055</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291055</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291054</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291059</v>
+        <v>619.9165945291054</v>
       </c>
       <c r="J4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901875</v>
+        <v>733.3718227901869</v>
       </c>
       <c r="M4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466321</v>
+        <v>57.5736591846633</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.8565063235455</v>
+        <v>55.85650632354532</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361944</v>
+        <v>85.79418171361971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529197</v>
+        <v>24.47837710529191</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037902</v>
+        <v>50.08676248037921</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506501</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411553</v>
+        <v>94.61339326411519</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466321</v>
+        <v>57.5736591846633</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.8565063235455</v>
+        <v>55.85650632354532</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.2115702199254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506501</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411553</v>
+        <v>94.61339326411519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>223.987896862019</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.4529588550486</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>27.2869040187835</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>18.69718685365243</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.1231633243156</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>81.5638522118069</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27582,13 +27582,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>192.5475381288257</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>255.3269000457832</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>230.7150645701878</v>
+        <v>213.2854656563903</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0873716173086</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27783,10 +27783,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27819,10 +27819,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>90.98852714580335</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>196.4951969586345</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>303.0155961588182</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>81.43664713248185</v>
       </c>
       <c r="V9" t="n">
-        <v>90.33485670318439</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>94.16710381075333</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28056,16 +28056,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>136.4534115465615</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>10.64205129852495</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>34.34031316762764</v>
       </c>
       <c r="P11" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082088</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="12">
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>87.68688454172909</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>28.5004583257263</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>10.64205129852519</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P14" t="n">
-        <v>113.4301655082088</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>10.64205129852388</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>87.6868845417291</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>19.98842208489044</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>171.003824692872</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>171.003824692872</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.3550639456165</v>
+        <v>32.62316030650945</v>
       </c>
       <c r="R17" t="n">
-        <v>171.003824692872</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>171.003824692872</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.68688454172907</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>19.98842208489081</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>171.003824692872</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1714932602880737</v>
+        <v>3.944766807331163</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="E20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="F20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="G20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>122.3550639456147</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,37 +28837,37 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.62316030651129</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="S20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>19.98842208489089</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>87.68688454172911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>168.0913031032236</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.94476680733159</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="D23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="E23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="F23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="G23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="H23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="I23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="J23" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="L23" t="n">
-        <v>171.003824692872</v>
+        <v>32.62316030650908</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="P23" t="n">
-        <v>32.6231603065105</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>19.98842208489124</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>87.68688454172892</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.94476680733159</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.944766807330723</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="T25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="U25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="V25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="W25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="X25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928721</v>
       </c>
     </row>
     <row r="26">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082093</v>
       </c>
       <c r="K28" t="n">
         <v>113.4301655082087</v>
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="L32" t="n">
-        <v>63.69544852598625</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="N32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="O32" t="n">
-        <v>141.650688037165</v>
+        <v>63.69544852598312</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="R32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550331</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="C34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="D34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="E34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="F34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="G34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="H34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="I34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="J34" t="n">
-        <v>125.2917649138132</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141.650688037165</v>
+        <v>65.83509871384173</v>
       </c>
       <c r="Q34" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="S34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="T34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="U34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="V34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="W34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="X34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371651</v>
       </c>
     </row>
     <row r="35">
@@ -30007,28 +30007,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>40.58157162934948</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O35" t="n">
-        <v>40.58157162934987</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30247,25 +30247,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>40.58157162934944</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30396,10 +30396,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>14.96741926690628</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,46 +30457,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="J41" t="n">
-        <v>160.3593212992905</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>57.8908031588486</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>128.5182208190332</v>
       </c>
       <c r="O41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>160.3593212992905</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>157.499667741369</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H43" t="n">
-        <v>160.3593212992905</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>160.3593212992905</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>85.37583709471954</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>98.54380332635482</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30666,25 +30666,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992905</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>128.518220819034</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="O44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>57.89080315884755</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>157.499667741369</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>160.3593212992904</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>98.54380332635486</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.1082075583397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992908</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>135.2941195435645</v>
+        <v>230.6802343784495</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>20.78394361225797</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,7 +34784,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>449.8538496497524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>244.1274539275667</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>274.8809747384462</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35021,16 +35021,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>347.8038458784638</v>
       </c>
       <c r="N6" t="n">
-        <v>265.0685625441682</v>
+        <v>498.2115702199253</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,7 +35261,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.36785359428823</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L11" t="n">
-        <v>464.8295322606797</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.583053071558</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>342.4257520290761</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910358</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>321.5555127232757</v>
       </c>
       <c r="P12" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823976</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K13" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>253.2080836669926</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>106.0281661334097</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910359</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>291.40411375828</v>
+        <v>230.5413394824133</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823977</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K16" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536092</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>243.7296269886353</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>413.5698570613395</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>401.4653362646429</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.7411787805023</v>
+        <v>128.0092751413953</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376679</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>415.3266265879989</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36030,7 +36030,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.773273547043487</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
-        <v>99.629722043813</v>
+        <v>103.4029955908561</v>
       </c>
       <c r="P19" t="n">
         <v>63.604529018321</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>195.0808662413779</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>522.4031914453429</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36133,16 +36133,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>479.0892635543204</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>401.465336264643</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.0092751413972</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.2719210537669</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>218.0653595001888</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>230.5413394824147</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36255,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.084014849935585</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -36267,7 +36267,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.8607519573951181</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>123.1301265321818</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>243.7296269886353</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>413.5698570613395</v>
       </c>
       <c r="L23" t="n">
-        <v>522.4031914453429</v>
+        <v>384.02252705898</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,10 +36370,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543205</v>
       </c>
       <c r="P23" t="n">
-        <v>263.0846718782814</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>355.7737358738542</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>230.5413394824129</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36519,10 +36519,10 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>105.5680793328462</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>119.1853597248502</v>
+        <v>123.130126532181</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36598,25 +36598,25 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>464.8295322606797</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>495.583053071558</v>
+        <v>495.5830530715579</v>
       </c>
       <c r="O26" t="n">
         <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930824029</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056325</v>
       </c>
       <c r="L32" t="n">
-        <v>415.0948152784572</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>538.8619670806881</v>
+        <v>538.8619670806883</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8035756005143</v>
+        <v>523.8035756005144</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986134</v>
+        <v>371.7808873874316</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>372.1121996089361</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>237.036802872051</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805978</v>
+        <v>51.91878439805993</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.83509871384419</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37233,16 +37233,16 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>260.8360477620152</v>
+        <v>260.8360477620154</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>261.2692150569634</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>205.255217055486</v>
+        <v>129.4396277321627</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37315,16 +37315,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907983</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37388,13 +37388,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.429945578912</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
@@ -37543,25 +37543,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>116.5907317924209</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.0851235950537</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>402.9253536677583</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>455.1020822023718</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>510.6711083823824</v>
       </c>
       <c r="O41" t="n">
-        <v>468.4447601607389</v>
+        <v>468.4447601607393</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37801,7 +37801,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018527</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>159.3652826117113</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7.010743645074647</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.580402530771551</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.5983073459422</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>186.9991496202342</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>162.1483323446758</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>402.9253536677578</v>
+        <v>402.9253536677583</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>525.7294998625572</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>542.51220886264</v>
       </c>
       <c r="O44" t="n">
-        <v>468.4447601607388</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>153.2769179937334</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>70.62741766018564</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>7.010743645074647</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>17.59830734594215</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>217.7291630512051</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.95623962549183</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
